--- a/data/trans_camb/P10_2_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P10_2_R-Estudios-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,17; 6,28</t>
+          <t>0,1; 5,86</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,46; 2,23</t>
+          <t>-3,43; 2,06</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,2; 4,9</t>
+          <t>-1,26; 4,86</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>7,11; 13,07</t>
+          <t>6,93; 12,79</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,51; 10,74</t>
+          <t>4,62; 11,27</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>7,27; 13,42</t>
+          <t>7,21; 13,43</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>4,96; 9,08</t>
+          <t>4,94; 8,99</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,93; 6,49</t>
+          <t>1,88; 6,62</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>4,83; 9,31</t>
+          <t>4,58; 9,27</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,63; 72,21</t>
+          <t>0,64; 65,48</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-31,28; 25,64</t>
+          <t>-30,93; 22,67</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-10,68; 57,09</t>
+          <t>-11,04; 54,16</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>48,4; 113,03</t>
+          <t>49,77; 112,3</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>32,07; 93,89</t>
+          <t>32,2; 96,14</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>50,52; 116,35</t>
+          <t>49,2; 115,49</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>39,08; 84,47</t>
+          <t>38,45; 85,31</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>15,63; 59,39</t>
+          <t>14,5; 61,25</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>37,97; 85,8</t>
+          <t>37,38; 87,33</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,37; 2,97</t>
+          <t>0,57; 3,06</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,58; 3,0</t>
+          <t>0,58; 3,19</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,05; 3,58</t>
+          <t>0,92; 3,47</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,57; 5,43</t>
+          <t>1,49; 5,2</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,26; 3,21</t>
+          <t>-0,29; 3,1</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,38; 3,11</t>
+          <t>-0,44; 3,18</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,39; 3,62</t>
+          <t>1,47; 3,62</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,58; 2,7</t>
+          <t>0,66; 2,75</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,88; 2,96</t>
+          <t>0,88; 3,08</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>8,27; 129,65</t>
+          <t>15,45; 137,28</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>17,53; 129,1</t>
+          <t>14,41; 140,94</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>27,08; 159,86</t>
+          <t>27,18; 159,6</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>24,47; 107,7</t>
+          <t>21,31; 101,68</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-4,15; 63,06</t>
+          <t>-4,57; 60,61</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-5,43; 59,97</t>
+          <t>-6,17; 63,93</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>26,78; 92,81</t>
+          <t>29,8; 95,48</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>12,46; 71,54</t>
+          <t>13,57; 73,37</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>17,74; 78,29</t>
+          <t>18,27; 81,46</t>
         </is>
       </c>
     </row>
@@ -1117,17 +1117,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,88; 2,17</t>
+          <t>-2,82; 2,22</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,09; 1,55</t>
+          <t>-2,99; 1,38</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,27; 2,38</t>
+          <t>-2,08; 2,24</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1137,27 +1137,27 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,97; 2,29</t>
+          <t>-2,95; 2,42</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 4,93</t>
+          <t>-0,68; 4,75</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-2,05; 1,88</t>
+          <t>-2,15; 1,7</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,38; 1,07</t>
+          <t>-2,24; 1,19</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-0,64; 3,11</t>
+          <t>-0,63; 3,09</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-61,55; 83,85</t>
+          <t>-61,65; 93,42</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-64,37; 61,7</t>
+          <t>-62,61; 57,25</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-44,26; 91,77</t>
+          <t>-43,04; 88,34</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-44,98; 92,3</t>
+          <t>-45,45; 96,16</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-49,28; 66,55</t>
+          <t>-47,98; 75,56</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-7,78; 149,79</t>
+          <t>-13,06; 135,78</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-42,23; 60,77</t>
+          <t>-43,16; 50,44</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-44,71; 35,34</t>
+          <t>-43,32; 36,9</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-13,3; 92,47</t>
+          <t>-13,03; 94,98</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,36; 2,64</t>
+          <t>0,35; 2,8</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 1,24</t>
+          <t>-1,0; 1,25</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,45; 1,74</t>
+          <t>-0,36; 1,98</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>3,83; 6,86</t>
+          <t>3,9; 6,99</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,84; 3,65</t>
+          <t>0,66; 3,69</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,71; 3,7</t>
+          <t>0,7; 3,77</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>2,5; 4,57</t>
+          <t>2,55; 4,49</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,35; 2,2</t>
+          <t>0,26; 2,14</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,71; 2,53</t>
+          <t>0,67; 2,62</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>6,83; 59,14</t>
+          <t>5,51; 58,47</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-16,35; 26,8</t>
+          <t>-16,96; 26,93</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-7,89; 37,77</t>
+          <t>-6,22; 43,68</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>40,94; 87,84</t>
+          <t>41,96; 89,1</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>8,87; 46,63</t>
+          <t>6,93; 46,55</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>8,2; 46,85</t>
+          <t>7,93; 48,95</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>34,75; 71,48</t>
+          <t>34,1; 68,77</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>4,65; 33,61</t>
+          <t>3,58; 33,85</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>9,94; 40,19</t>
+          <t>8,64; 39,86</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P10_2_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P10_2_R-Estudios-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,1; 5,86</t>
+          <t>-0,06; 5,83</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,43; 2,06</t>
+          <t>-3,73; 1,69</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,26; 4,86</t>
+          <t>-1,28; 5,26</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>6,93; 12,79</t>
+          <t>7,19; 12,88</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,62; 11,27</t>
+          <t>4,31; 11,15</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>7,21; 13,43</t>
+          <t>7,21; 13,56</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>4,94; 8,99</t>
+          <t>4,9; 9,3</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,88; 6,62</t>
+          <t>1,81; 6,43</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>4,58; 9,27</t>
+          <t>4,54; 9,3</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,64; 65,48</t>
+          <t>-0,96; 64,86</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-30,93; 22,67</t>
+          <t>-32,83; 19,87</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-11,04; 54,16</t>
+          <t>-11,35; 58,87</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>49,77; 112,3</t>
+          <t>50,19; 111,37</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>32,2; 96,14</t>
+          <t>29,31; 93,41</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>49,2; 115,49</t>
+          <t>50,14; 115,77</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>38,45; 85,31</t>
+          <t>38,7; 86,19</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>14,5; 61,25</t>
+          <t>14,81; 60,01</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>37,38; 87,33</t>
+          <t>36,02; 86,29</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,57; 3,06</t>
+          <t>0,54; 3,18</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,58; 3,19</t>
+          <t>0,69; 3,14</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,92; 3,47</t>
+          <t>0,95; 3,58</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,49; 5,2</t>
+          <t>1,67; 5,37</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 3,1</t>
+          <t>-0,26; 3,11</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 3,18</t>
+          <t>-0,37; 3,2</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,47; 3,62</t>
+          <t>1,34; 3,6</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,66; 2,75</t>
+          <t>0,53; 2,74</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,88; 3,08</t>
+          <t>0,77; 2,97</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>15,45; 137,28</t>
+          <t>14,15; 146,58</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>14,41; 140,94</t>
+          <t>19,21; 144,08</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>27,18; 159,6</t>
+          <t>26,99; 166,42</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>21,31; 101,68</t>
+          <t>24,19; 104,46</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-4,57; 60,61</t>
+          <t>-3,85; 60,86</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-6,17; 63,93</t>
+          <t>-5,08; 61,38</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>29,8; 95,48</t>
+          <t>27,4; 90,93</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>13,57; 73,37</t>
+          <t>10,74; 70,71</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>18,27; 81,46</t>
+          <t>16,63; 78,78</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,82; 2,22</t>
+          <t>-3,14; 2,08</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,99; 1,38</t>
+          <t>-3,35; 1,33</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,08; 2,24</t>
+          <t>-2,13; 2,41</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,72; 3,06</t>
+          <t>-2,89; 3,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,95; 2,42</t>
+          <t>-2,83; 2,44</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,68; 4,75</t>
+          <t>-0,39; 4,64</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-2,15; 1,7</t>
+          <t>-2,0; 1,91</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,24; 1,19</t>
+          <t>-2,23; 1,3</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-0,63; 3,09</t>
+          <t>-0,43; 3,19</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-61,65; 93,42</t>
+          <t>-64,77; 88,16</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-62,61; 57,25</t>
+          <t>-64,91; 52,64</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-43,04; 88,34</t>
+          <t>-43,24; 90,48</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-45,45; 96,16</t>
+          <t>-48,83; 90,42</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-47,98; 75,56</t>
+          <t>-46,66; 81,66</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-13,06; 135,78</t>
+          <t>-9,16; 143,41</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-43,16; 50,44</t>
+          <t>-40,16; 63,29</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-43,32; 36,9</t>
+          <t>-43,82; 39,63</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-13,03; 94,98</t>
+          <t>-9,34; 100,92</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,35; 2,8</t>
+          <t>0,36; 2,71</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,0; 1,25</t>
+          <t>-0,97; 1,3</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 1,98</t>
+          <t>-0,42; 1,91</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>3,9; 6,99</t>
+          <t>3,86; 7,13</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,66; 3,69</t>
+          <t>0,85; 3,57</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,7; 3,77</t>
+          <t>0,68; 3,78</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>2,55; 4,49</t>
+          <t>2,55; 4,46</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,26; 2,14</t>
+          <t>0,32; 2,2</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,67; 2,62</t>
+          <t>0,71; 2,63</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>5,51; 58,47</t>
+          <t>5,82; 55,76</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-16,96; 26,93</t>
+          <t>-16,97; 28,23</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-6,22; 43,68</t>
+          <t>-7,94; 39,91</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>41,96; 89,1</t>
+          <t>41,11; 90,7</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>6,93; 46,55</t>
+          <t>9,16; 46,45</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>7,93; 48,95</t>
+          <t>7,52; 48,65</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>34,1; 68,77</t>
+          <t>34,81; 68,88</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>3,58; 33,85</t>
+          <t>4,2; 34,29</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>8,64; 39,86</t>
+          <t>9,94; 41,34</t>
         </is>
       </c>
     </row>
